--- a/06_pagevolume/Wegloo_pageVolume.xlsx
+++ b/06_pagevolume/Wegloo_pageVolume.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\도경진\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCID_document\06_pagevolume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CAC475-99EC-4286-A1E7-2FA2676935F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0218D2-5CB7-4920-9F33-5C24558F8F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{14DF76B9-39E3-4AAA-9882-3139155DD623}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="201">
   <si>
     <t>Wegloo PageVolume</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일 인증화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원정보 입력(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,42 +135,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름과 휴대전화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 사진과 별명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동아리검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enter Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>본인인증(인증완료)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본인인증(미인증)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스워드 입력 불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스워드 입력 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000_loading_000_splashScreen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,11 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일로 보내진 코드 입력
-기본 Dialog 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6th Depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,15 +215,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>111_SignUp_100_emailDialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>111_SignUp_000_identification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>112_SignUp_000_identification_complete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -439,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,18 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selectClub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동아리 홈 화면! 작업화면-홈-동아리선택화면 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작업화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,47 +418,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작업화면으로 이동, 추후 기능 화면이 대신하는 
-자리임으로 따로 Design은 필요없습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>230</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로고 클릭화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로고 클릭전 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click Logo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>210_HomeClub_000_clubMainScreenClick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동아리 홈 화면에서 기능 화면 접근 Button 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Right-&gt;Left Swipe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,19 +434,396 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>220_HomeClub_000_selectClub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230_HomeClub_000_workScreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240_HomeClub_000_menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일 -&gt; Dialog가 아니고 한 화면에서 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>711</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤러리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보드메뉴 삭제) 삭제 확인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보드메뉴 수정) 게시글 작성 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(글쓰기) 게시글 작성 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 Item list, 
+Item (좋아요 수, 댓글 수, 작성일, 작성자)
+Item …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글(작성, 삭제, 대댓글), 메뉴(수정,삭제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 Dialog 화면 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성, 취소, Text, Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(임원용) 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제
+기본 PopUp 화면 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Api 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Long Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>721</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700_BoardClub_000_mainBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"712_BoardClub_000_writeBoardItem"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일을 통한 인증번호 전송 및 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력 및 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사진과 이름, 휴대전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(가입)동아리검색(입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업화면으로 이동, 추후 기능 화면이 대신함으로 따로 Design은 필요없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>710_BoardClub_000_detailBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>711_BoardClub_000_checkDeleteBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>712_BoardClub_000_writeBoradItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720_BoardClub_000_writeBoardItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>721_BoardClub_000_systemGallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>730_BoardClub_000_adminMenuBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 홈 화면! 작업화면-홈-동아리선택화면 구성
+동아리 기능 접근 Button - 애니메이션으로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 화면 접근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 가입 or 창설 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"120_JCClub_000_joinOrCreate" 재활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 기능화면을 viewPager 작업화면에 생성
+(공지, 게시판, 투표, 일정, 출석)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectClub -&gt; 해당 동아리 Home 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 승인 대기중 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 Dialog 화면 사용 or 안내글 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가계부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS 활동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커스텀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람있는 Home 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 기능의 새로운 Item이 있을 경우 보여지는 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>231_HomeClub_000_JoinOrCreate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>231_HomeClub_000_waitForAccept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210_HomeClub_000_alertClubMainScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220_HomeClub_000_workScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230_HomeClub_000_selectClub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240_HomeClub_000_workScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250_HomeClub_000_menuFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>내 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 링크 공유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>광고 추가!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 기능 페이지로 이동 
+해당 기능 Design 참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +956,24 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066417C9-5079-4F96-90E5-43F8D85BA183}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1006,11 +1303,11 @@
     <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="21.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.875" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="15.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.25" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="37.875" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.375" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.875" style="6" bestFit="1" customWidth="1"/>
@@ -1023,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1060,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>5</v>
@@ -1088,8 +1385,8 @@
       <c r="O5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>35</v>
+      <c r="P5" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>18</v>
@@ -1103,10 +1400,10 @@
         <v>20</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>18</v>
@@ -1114,19 +1411,19 @@
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>18</v>
@@ -1134,478 +1431,963 @@
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>56</v>
+      <c r="P8" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="12" x14ac:dyDescent="0.3">
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>37</v>
+      <c r="P9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
+      <c r="E10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>57</v>
+      <c r="P10" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="12" x14ac:dyDescent="0.3">
-      <c r="D11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="1" t="s">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="M11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>58</v>
+      <c r="P11" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>18</v>
-      </c>
+    <row r="12" spans="1:19" s="15" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="M13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>60</v>
+      <c r="B13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="I13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="15" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="O14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="I15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>76</v>
+      <c r="C15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>75</v>
+      <c r="D16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>29</v>
+      <c r="C17" s="1"/>
+      <c r="E17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>45</v>
+      <c r="C18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>46</v>
+      <c r="K19" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>70</v>
+    <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="E20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>22</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>90</v>
+      <c r="F21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>79</v>
+      <c r="P21" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>91</v>
+      <c r="P22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.3">
       <c r="F23" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+    </row>
+    <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O25" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="Q25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="R25" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="F25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="O26" s="11"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="7">
+        <v>210</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A27" s="20"/>
+      <c r="B27" s="7">
+        <v>220</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="I27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>107</v>
+        <v>138</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="R27" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="7">
-        <v>210</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>117</v>
+      <c r="I28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="R28" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="12" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>108</v>
-      </c>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7">
+        <v>231</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>110</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>106</v>
+        <v>159</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="R29" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
-        <v>112</v>
-      </c>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7">
+        <v>232</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>118</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>111</v>
+        <v>160</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="R30" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="7">
+        <v>240</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="7">
+        <v>250</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="I32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="I33" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="R33" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="I34" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O34" s="21"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="21"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="I35" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O35" s="21"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="21"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="I36" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O36" s="21"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="21"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="I37" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O37" s="21"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="21"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="I38" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O38" s="21"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="21"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="I39" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O39" s="21"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="21"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="I40" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O40" s="21"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="21"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="I41" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O41" s="21"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="21"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="I42" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O42" s="21"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="21"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="I43" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O43" s="21"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="21"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="I44" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O44" s="21"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="21"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="I45" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O45" s="21"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="21"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="I46" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O46" s="21"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="21"/>
+    </row>
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="I47" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O47" s="21"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="21"/>
+    </row>
+    <row r="48" spans="1:19" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+    </row>
+    <row r="49" spans="1:18" ht="36" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="R54" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O55" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>125</v>
+      <c r="P55" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q55" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A4:G4"/>
+    <mergeCell ref="O33:O47"/>
+    <mergeCell ref="Q33:Q47"/>
+    <mergeCell ref="R33:R47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06_pagevolume/Wegloo_pageVolume.xlsx
+++ b/06_pagevolume/Wegloo_pageVolume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCID_document\06_pagevolume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0218D2-5CB7-4920-9F33-5C24558F8F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B11CFE-08F6-42F1-AEAE-58D239B4288A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{14DF76B9-39E3-4AAA-9882-3139155DD623}"/>
+    <workbookView xWindow="6285" yWindow="2850" windowWidth="20910" windowHeight="11835" xr2:uid="{14DF76B9-39E3-4AAA-9882-3139155DD623}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="243">
   <si>
     <t>Wegloo PageVolume</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>710</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,10 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>갤러리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(보드메뉴 삭제) 삭제 확인 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,12 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 Item list, 
-Item (좋아요 수, 댓글 수, 작성일, 작성자)
-Item …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>댓글(작성, 삭제, 대댓글), 메뉴(수정,삭제)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,19 +491,6 @@
   </si>
   <si>
     <t>작성, 취소, Text, Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(임원용) 메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제
-기본 PopUp 화면 이용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System Api 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,34 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.</t>
   </si>
   <si>
@@ -764,19 +709,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동아리 링크 공유</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>252</t>
   </si>
   <si>
     <t>253</t>
@@ -824,6 +758,234 @@
   <si>
     <t>해당 기능 페이지로 이동 
 해당 기능 Design 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>앨범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새상품 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Gallery 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 갤러리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(물품) 대여하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(물품) 기록보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 PopUp 화면 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 캘린더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 시계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품사진, 물품명, 대여자, 대여기간(날짜, 시간, 언제부터 언제까지인지), 대여하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품명, 물품사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여기간(날짜, 시간, 언제부터 언제까지인지), 대여자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 Spiner 메뉴 이용:
+ 대여하기(반납하기), 기록보기, 삭제(임원이상 보임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(대여신청삭제, 임원이상용) 
+삭제 확인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 Spiner 메뉴 이용
+임원이상만 삭제 메뉴가 보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(물품, 임원이상) 삭제 확인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(임원이상) 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임원이상만 보이는 화면으로 삭제 버튼 생성
+기본 PopUp 화면 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 Item list, 
+Item (좋아요 수, 댓글 수, 작성일, 작성자), item…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여중 물품 list, 대여가능 물품 list, 연체된 물품 list,
+새상품 추가(임원이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품관리
+Material Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판
+Board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500_MaterialM_000_mainMaterialM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511_MaterialM_000_systemGallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500_MaterialM_000_addNewMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>520_MaterialM_000_menuMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>521_MaterialM_000_lendMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>521_MaterialM_100_systemCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>521_MaterialM_200_systemClock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>522_MaterialM_000_historyMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>522_MaterialM_100_checkDeletePlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>523_MaterialM_000_checkDeleteMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,7 +1061,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,26 +1116,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066417C9-5079-4F96-90E5-43F8D85BA183}">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1300,11 +1474,11 @@
     <col min="1" max="5" width="5.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="6.125" style="5" customWidth="1"/>
     <col min="7" max="7" width="6.625" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="21.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.875" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="15.625" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36.25" style="7" bestFit="1" customWidth="1"/>
@@ -1329,15 +1503,15 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1608,7 @@
         <v>87</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>22</v>
@@ -1443,7 +1617,7 @@
         <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>18</v>
@@ -1463,7 +1637,7 @@
         <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>18</v>
@@ -1483,7 +1657,7 @@
         <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>18</v>
@@ -1567,7 +1741,7 @@
         <v>90</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -1771,14 +1945,14 @@
         <v>92</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="R25" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7">
         <v>210</v>
       </c>
@@ -1788,49 +1962,49 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="R26" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="7">
         <v>220</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
       <c r="I27" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>142</v>
+        <v>156</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="R27" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="1"/>
@@ -1842,17 +2016,17 @@
         <v>94</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="R28" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7">
         <v>231</v>
@@ -1862,21 +2036,21 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="R29" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7">
         <v>232</v>
@@ -1886,21 +2060,21 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R30" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="24" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="7">
         <v>240</v>
       </c>
@@ -1916,23 +2090,23 @@
         <v>96</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="R31" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="7">
         <v>250</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
       <c r="I32" s="1" t="s">
         <v>97</v>
       </c>
@@ -1940,454 +2114,744 @@
         <v>98</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="R32" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="I33" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O33" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="I33" s="22" t="s">
+      <c r="R33" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="I34" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O34" s="25"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="25"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="I35" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O35" s="25"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="21"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="I36" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O36" s="25"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="25"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="I37" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O37" s="25"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="25"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="I38" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O38" s="25"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="25"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="I39" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O39" s="25"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="25"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="I40" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O40" s="25"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="25"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="I41" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O41" s="25"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="25"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="I42" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O42" s="25"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="25"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="I43" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O43" s="25"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="25"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="I44" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O33" s="21" t="s">
+      <c r="J44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O44" s="25"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="25"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="I45" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O45" s="25"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="25"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="I46" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O46" s="25"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="25"/>
+    </row>
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="I47" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O47" s="25"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="25"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="I48" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O48" s="25"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="25"/>
+    </row>
+    <row r="49" spans="1:19" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+    </row>
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+    </row>
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+    </row>
+    <row r="66" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q66" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O69" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q69" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O70" s="28"/>
+      <c r="P70" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q70" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="R70" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S70" s="21"/>
+    </row>
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O71" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="R33" s="21" t="s">
+      <c r="P71" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q71" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="R71" s="21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="I34" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O34" s="21"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="21"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="I35" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="S71" s="21"/>
+    </row>
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O72" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P72" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q72" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="R72" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S72" s="21"/>
+    </row>
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O73" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P73" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q73" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="R73" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S73" s="21"/>
+    </row>
+    <row r="74" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K74" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="O74" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="P74" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q74" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="R74" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S74" s="21"/>
+    </row>
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O75" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P75" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q75" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="R75" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S75" s="21"/>
+    </row>
+    <row r="76" spans="1:19" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+    </row>
+    <row r="77" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q77" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R77" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q78" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="R78" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O35" s="21"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="21"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="I36" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O36" s="21"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="21"/>
-    </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="I37" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O37" s="21"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="21"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="I38" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O38" s="21"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="21"/>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="I39" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O39" s="21"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="21"/>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="I40" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O40" s="21"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="21"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="I41" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O41" s="21"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="21"/>
-    </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="I42" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O42" s="21"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="21"/>
-    </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="I43" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O43" s="21"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="21"/>
-    </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="I44" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O44" s="21"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="21"/>
-    </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="I45" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="O45" s="21"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="21"/>
-    </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="I46" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O46" s="21"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="21"/>
-    </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="I47" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O47" s="21"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="21"/>
-    </row>
-    <row r="48" spans="1:19" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-    </row>
-    <row r="49" spans="1:18" ht="36" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q49" s="8" t="s">
+      <c r="O80" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R80" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q81" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="R49" s="6" t="s">
+      <c r="R81" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q50" s="7" t="s">
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q82" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="R82" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B83" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O83" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="R50" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R51" s="6" t="s">
+      <c r="P83" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q83" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="R83" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="R52" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R53" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="B55" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q55" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="R55" s="6" t="s">
-        <v>19</v>
+    <row r="84" spans="1:19" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+    </row>
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="O33:O47"/>
-    <mergeCell ref="Q33:Q47"/>
-    <mergeCell ref="R33:R47"/>
+    <mergeCell ref="O33:O48"/>
+    <mergeCell ref="Q33:Q48"/>
+    <mergeCell ref="R33:R48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06_pagevolume/Wegloo_pageVolume.xlsx
+++ b/06_pagevolume/Wegloo_pageVolume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCID_document\06_pagevolume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B11CFE-08F6-42F1-AEAE-58D239B4288A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992347BC-254D-4DA9-B30D-58425B8E349D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="2850" windowWidth="20910" windowHeight="11835" xr2:uid="{14DF76B9-39E3-4AAA-9882-3139155DD623}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{14DF76B9-39E3-4AAA-9882-3139155DD623}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="244">
   <si>
     <t>Wegloo PageVolume</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -986,6 +986,11 @@
   </si>
   <si>
     <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석
+Attend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,6 +1139,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1145,9 +1153,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066417C9-5079-4F96-90E5-43F8D85BA183}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1503,15 +1508,15 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2137,13 +2142,13 @@
       <c r="J33" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="O33" s="25" t="s">
+      <c r="O33" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="Q33" s="26" t="s">
+      <c r="Q33" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="R33" s="25" t="s">
+      <c r="R33" s="26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2161,9 +2166,9 @@
       <c r="J34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O34" s="25"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="25"/>
+      <c r="O34" s="26"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="26"/>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
@@ -2179,10 +2184,10 @@
       <c r="J35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O35" s="25"/>
+      <c r="O35" s="26"/>
       <c r="P35" s="23"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="25"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="26"/>
       <c r="S35" s="21"/>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2199,9 +2204,9 @@
       <c r="J36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O36" s="25"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="25"/>
+      <c r="O36" s="26"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="26"/>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
@@ -2217,9 +2222,9 @@
       <c r="J37" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="O37" s="25"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="25"/>
+      <c r="O37" s="26"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="26"/>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
@@ -2235,9 +2240,9 @@
       <c r="J38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O38" s="25"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="25"/>
+      <c r="O38" s="26"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="26"/>
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
@@ -2253,9 +2258,9 @@
       <c r="J39" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O39" s="25"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="25"/>
+      <c r="O39" s="26"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="26"/>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
@@ -2271,9 +2276,9 @@
       <c r="J40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O40" s="25"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="25"/>
+      <c r="O40" s="26"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="26"/>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
@@ -2289,9 +2294,9 @@
       <c r="J41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O41" s="25"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="25"/>
+      <c r="O41" s="26"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="26"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
@@ -2307,9 +2312,9 @@
       <c r="J42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O42" s="25"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="25"/>
+      <c r="O42" s="26"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="26"/>
     </row>
     <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
@@ -2325,9 +2330,9 @@
       <c r="J43" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O43" s="25"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="25"/>
+      <c r="O43" s="26"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="26"/>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
@@ -2343,9 +2348,9 @@
       <c r="J44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O44" s="25"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="25"/>
+      <c r="O44" s="26"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="26"/>
     </row>
     <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
@@ -2361,9 +2366,9 @@
       <c r="J45" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="O45" s="25"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="25"/>
+      <c r="O45" s="26"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="26"/>
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
@@ -2379,10 +2384,10 @@
       <c r="J46" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="O46" s="25"/>
+      <c r="O46" s="26"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="25"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="26"/>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
@@ -2400,10 +2405,10 @@
       <c r="J47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O47" s="25"/>
+      <c r="O47" s="26"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="25"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="26"/>
     </row>
     <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
@@ -2421,10 +2426,10 @@
       <c r="J48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O48" s="25"/>
+      <c r="O48" s="26"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="25"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="26"/>
     </row>
     <row r="49" spans="1:19" s="10" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
@@ -2536,7 +2541,7 @@
       <c r="I69" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="O69" s="28" t="s">
+      <c r="O69" s="24" t="s">
         <v>105</v>
       </c>
       <c r="P69" s="7" t="s">
@@ -2556,7 +2561,7 @@
       <c r="J70" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O70" s="28"/>
+      <c r="O70" s="24"/>
       <c r="P70" s="23" t="s">
         <v>236</v>
       </c>
@@ -2575,7 +2580,7 @@
       <c r="K71" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O71" s="28" t="s">
+      <c r="O71" s="24" t="s">
         <v>22</v>
       </c>
       <c r="P71" s="23" t="s">
@@ -2596,7 +2601,7 @@
       <c r="K72" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="O72" s="28" t="s">
+      <c r="O72" s="24" t="s">
         <v>22</v>
       </c>
       <c r="P72" s="23" t="s">
@@ -2617,7 +2622,7 @@
       <c r="J73" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O73" s="28" t="s">
+      <c r="O73" s="24" t="s">
         <v>22</v>
       </c>
       <c r="P73" s="23" t="s">
@@ -2638,7 +2643,7 @@
       <c r="K74" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="O74" s="28" t="s">
+      <c r="O74" s="24" t="s">
         <v>105</v>
       </c>
       <c r="P74" s="23" t="s">
@@ -2659,7 +2664,7 @@
       <c r="J75" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="O75" s="28" t="s">
+      <c r="O75" s="24" t="s">
         <v>22</v>
       </c>
       <c r="P75" s="23" t="s">
@@ -2841,9 +2846,12 @@
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
     </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>242</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/06_pagevolume/Wegloo_pageVolume.xlsx
+++ b/06_pagevolume/Wegloo_pageVolume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCID_document\06_pagevolume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992347BC-254D-4DA9-B30D-58425B8E349D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072201E9-9CD3-4FB1-A902-0D10D9E3F155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{14DF76B9-39E3-4AAA-9882-3139155DD623}"/>
   </bookViews>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066417C9-5079-4F96-90E5-43F8D85BA183}">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/06_pagevolume/Wegloo_pageVolume.xlsx
+++ b/06_pagevolume/Wegloo_pageVolume.xlsx
@@ -1,36 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\도경진\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2A5020-3B77-47A4-9096-8B9175D0D9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9360"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="375">
   <si>
     <t>Wegloo PageVolume</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,10 +586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가계부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물품관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,10 +606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,10 +658,6 @@
   </si>
   <si>
     <t>동아리 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동아리 링크 공유</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1317,8 +1301,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>내 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(임원) 동아리 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 기능 페이지로 이동 
+해당 기능 Design 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록
+Member List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1900_MemberList_000_mainMemberList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원목록, 프로필사진, 이름, 
+직책(회장 unique, 부회장, 임원, 회원), 전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(부회장이상만) 회원목록 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 PopUp 메뉴 이용:
+(회장만) 회장 위임, 부회장 임명, 모임 추방
+(부회장 이상만) 임원으로 임명, 회원으로 임명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(회장 위임) 위임 확인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(부회장 임명) 임명 확인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(모임 추방) 추방 확인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1910_MemberList_000_menuMemberList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1911_MemberList_000_mandateMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위임 확인 Dialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임명 확인 Dialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추방 확인 Dialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1912_MemberList_000_designationMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1913_MemberList_000_kickOutMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(출석) 출석하기: 미출석 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(임원이상만) 출석메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110_Attend_000_adminMenuAttend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 확인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1111_Attend_000_detailAttend" 으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120_Attend_000_userMenuAttend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button or 
+"1120_Attend_000_userMenuAttend"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(출결관리자, 임원이상만) 출결변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(출결상태변경) 출결변경상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111_Attend_310_checkAttendState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">내 정보 수정 </t>
+      <t xml:space="preserve">동아리 링크 공유 </t>
     </r>
     <r>
       <rPr>
@@ -1329,13 +1443,18 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Delete-&gt;설정</t>
+      <t>-&gt;</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">커스텀 </t>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1346,149 +1465,221 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>초대</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입은 절차대로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원이 볼 수 있거나 
+회원가입시 자동 동아리 선택 기능이 되거나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">가계부 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; 의미없지 않니?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">내 정보 수정 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete-&gt;설정</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">커스텀 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Delete</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(임원) 동아리 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 기능 페이지로 이동 
-해당 기능 Design 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원목록
-Member List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1900_MemberList_000_mainMemberList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원목록, 프로필사진, 이름, 
-직책(회장 unique, 부회장, 임원, 회원), 전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(부회장이상만) 회원목록 메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 PopUp 메뉴 이용:
-(회장만) 회장 위임, 부회장 임명, 모임 추방
-(부회장 이상만) 임원으로 임명, 회원으로 임명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(회장 위임) 위임 확인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(부회장 임명) 임명 확인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(모임 추방) 추방 확인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1910_MemberList_000_menuMemberList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1911_MemberList_000_mandateMember</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위임 확인 Dialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임명 확인 Dialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추방 확인 Dialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1912_MemberList_000_designationMember</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1913_MemberList_000_kickOutMember</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(출석) 출석하기: 미출석 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(임원이상만) 출석메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1110_Attend_000_adminMenuAttend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제 확인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1111_Attend_000_detailAttend" 으로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1120_Attend_000_userMenuAttend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button or 
-"1120_Attend_000_userMenuAttend"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(출결관리자, 임원이상만) 출결변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(출결상태변경) 출결변경상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111_Attend_310_checkAttendState</t>
+    <r>
+      <t xml:space="preserve">Team </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(공지, 일정, 투표, 게시판, 출석)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS활동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 회원목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 활동 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품관리 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자메뉴 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애매…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도경진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도진아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬, 내꺼만 보는 것, 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>물품관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;물품대여</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,6 +1715,32 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1622,7 +1839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1634,9 +1851,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1701,14 +1915,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1719,11 +1933,23 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2038,11 +2264,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A101" zoomScale="105" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2078,50 +2304,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2259,12 +2485,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="8" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+    <row r="12" spans="1:19" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -2275,7 +2501,7 @@
         <v>50</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>63</v>
@@ -2417,7 +2643,7 @@
       <c r="P20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="10" t="s">
         <v>78</v>
       </c>
       <c r="R20" s="3" t="s">
@@ -2477,156 +2703,156 @@
       <c r="P23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="10" t="s">
         <v>82</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-    </row>
-    <row r="25" spans="1:19" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17">
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16">
         <v>130</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="I25" s="23" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="I25" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q25" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="O25" s="17" t="s">
+      <c r="R25" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16">
+        <v>131</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="J26" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q26" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="P25" s="17" t="s">
+      <c r="R26" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="S26" s="18"/>
+    </row>
+    <row r="27" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="K27" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q27" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="Q25" s="18" t="s">
+      <c r="R27" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="R25" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="S25" s="19"/>
-    </row>
-    <row r="26" spans="1:19" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17">
-        <v>131</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="J26" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="P26" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q26" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="R26" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="S26" s="19"/>
-    </row>
-    <row r="27" spans="1:19" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16">
+        <v>132</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="J28" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="O28" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="K27" s="16" t="s">
+      <c r="P28" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="R28" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="K29" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="P29" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="O27" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q27" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="R27" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="S27" s="19"/>
-    </row>
-    <row r="28" spans="1:19" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17">
-        <v>132</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="J28" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="O28" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="P28" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q28" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="R28" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="S28" s="19"/>
-    </row>
-    <row r="29" spans="1:19" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="K29" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="O29" s="18" t="s">
+      <c r="Q29" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="P29" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q29" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="R29" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="S29" s="19"/>
-    </row>
-    <row r="30" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
+      <c r="R29" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:19" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -2635,13 +2861,13 @@
       <c r="H31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O31" s="11" t="s">
+      <c r="O31" s="10" t="s">
         <v>84</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="10" t="s">
         <v>129</v>
       </c>
       <c r="R31" s="3" t="s">
@@ -2656,16 +2882,16 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="I32" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>18</v>
@@ -2686,10 +2912,10 @@
         <v>131</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q33" s="20" t="s">
-        <v>258</v>
+        <v>148</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>255</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>18</v>
@@ -2710,7 +2936,7 @@
         <v>93</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>134</v>
@@ -2732,7 +2958,7 @@
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>133</v>
@@ -2754,7 +2980,7 @@
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>136</v>
@@ -2778,9 +3004,9 @@
         <v>95</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q37" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q37" s="10" t="s">
         <v>122</v>
       </c>
       <c r="R37" s="3" t="s">
@@ -2798,14 +3024,14 @@
       <c r="I38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="10" t="s">
         <v>97</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>18</v>
@@ -2815,21 +3041,21 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="I39" s="21" t="s">
-        <v>178</v>
+      <c r="I39" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O39" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" s="28" t="s">
-        <v>175</v>
+      <c r="Q39" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="R39" s="26" t="s">
         <v>19</v>
@@ -2839,266 +3065,272 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="I40" s="21" t="s">
-        <v>179</v>
+      <c r="I40" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O40" s="31"/>
+        <v>140</v>
+      </c>
+      <c r="O40" s="30"/>
       <c r="Q40" s="32"/>
-      <c r="R40" s="31"/>
+      <c r="R40" s="30"/>
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="I41" s="21" t="s">
-        <v>180</v>
+      <c r="I41" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O41" s="31"/>
+        <v>138</v>
+      </c>
+      <c r="O41" s="30"/>
       <c r="Q41" s="32"/>
-      <c r="R41" s="31"/>
+      <c r="R41" s="30"/>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="I42" s="21" t="s">
-        <v>181</v>
+      <c r="I42" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O42" s="31"/>
+        <v>139</v>
+      </c>
+      <c r="O42" s="30"/>
       <c r="Q42" s="32"/>
-      <c r="R42" s="31"/>
+      <c r="R42" s="30"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="I43" s="21" t="s">
-        <v>182</v>
+      <c r="I43" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O43" s="31"/>
+        <v>173</v>
+      </c>
+      <c r="O43" s="30"/>
       <c r="Q43" s="32"/>
-      <c r="R43" s="31"/>
+      <c r="R43" s="30"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="I44" s="21" t="s">
-        <v>154</v>
+      <c r="I44" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O44" s="31"/>
+        <v>141</v>
+      </c>
+      <c r="O44" s="30"/>
       <c r="Q44" s="32"/>
-      <c r="R44" s="31"/>
+      <c r="R44" s="30"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="I45" s="21" t="s">
-        <v>155</v>
+      <c r="I45" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O45" s="31"/>
+        <v>142</v>
+      </c>
+      <c r="O45" s="30"/>
       <c r="Q45" s="32"/>
-      <c r="R45" s="31"/>
+      <c r="R45" s="30"/>
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="I46" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O46" s="31"/>
+      <c r="I46" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="O46" s="30"/>
       <c r="Q46" s="32"/>
-      <c r="R46" s="31"/>
+      <c r="R46" s="30"/>
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="I47" s="21" t="s">
-        <v>157</v>
+      <c r="I47" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O47" s="31"/>
+        <v>143</v>
+      </c>
+      <c r="O47" s="30"/>
       <c r="Q47" s="32"/>
-      <c r="R47" s="31"/>
+      <c r="R47" s="30"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="I48" s="21" t="s">
-        <v>158</v>
+      <c r="I48" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O48" s="31"/>
+        <v>144</v>
+      </c>
+      <c r="O48" s="30"/>
       <c r="Q48" s="32"/>
-      <c r="R48" s="31"/>
+      <c r="R48" s="30"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="O49" s="31"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="O49" s="30"/>
       <c r="Q49" s="32"/>
-      <c r="R49" s="31"/>
+      <c r="R49" s="30"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="O50" s="31"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="O50" s="30"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="31"/>
+      <c r="R50" s="30"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="I51" s="21" t="s">
-        <v>183</v>
+      <c r="I51" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O51" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="O51" s="30"/>
       <c r="Q51" s="32"/>
-      <c r="R51" s="31"/>
+      <c r="R51" s="30"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="I52" s="21" t="s">
-        <v>184</v>
+      <c r="I52" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O52" s="31"/>
+        <v>341</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L52" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="O52" s="30"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="32"/>
-      <c r="R52" s="31"/>
+      <c r="R52" s="30"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O53" s="31"/>
+      <c r="O53" s="30"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="32"/>
-      <c r="R53" s="31"/>
+      <c r="R53" s="30"/>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O54" s="31"/>
+        <v>186</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="O54" s="30"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="32"/>
-      <c r="R54" s="31"/>
+      <c r="R54" s="30"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
@@ -3106,11 +3338,11 @@
       <c r="C55" s="2">
         <v>269</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="20">
         <v>19</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="O55" s="27"/>
       <c r="P55" s="1"/>
@@ -3123,7 +3355,7 @@
         <v>280</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="I56" s="21"/>
+      <c r="I56" s="20"/>
       <c r="O56" s="3"/>
       <c r="P56" s="1"/>
     </row>
@@ -3133,21 +3365,21 @@
       <c r="C57" s="2">
         <v>281</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="20">
         <v>13</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="O57" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P57" s="1"/>
-      <c r="Q57" s="29" t="s">
-        <v>317</v>
+      <c r="Q57" s="28" t="s">
+        <v>312</v>
       </c>
       <c r="R57" s="26" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3156,63 +3388,63 @@
       <c r="C58" s="2">
         <v>282</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="20">
         <v>14</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="O58" s="27"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="30"/>
+      <c r="Q58" s="29"/>
       <c r="R58" s="27"/>
     </row>
-    <row r="59" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
+    <row r="59" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
     </row>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
     </row>
     <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
     </row>
     <row r="76" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H76" s="20" t="s">
-        <v>211</v>
+        <v>189</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q76" s="11" t="s">
-        <v>208</v>
+        <v>216</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>18</v>
@@ -3220,19 +3452,19 @@
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R77" s="3" t="s">
         <v>18</v>
@@ -3240,19 +3472,19 @@
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="R78" s="3" t="s">
         <v>19</v>
@@ -3260,19 +3492,19 @@
     </row>
     <row r="79" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O79" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O79" s="21" t="s">
         <v>103</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q79" s="11" t="s">
-        <v>292</v>
+        <v>219</v>
+      </c>
+      <c r="Q79" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>19</v>
@@ -3280,19 +3512,19 @@
     </row>
     <row r="80" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="O80" s="22" t="s">
-        <v>233</v>
+        <v>193</v>
+      </c>
+      <c r="O80" s="21" t="s">
+        <v>230</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q80" s="11" t="s">
-        <v>201</v>
+        <v>220</v>
+      </c>
+      <c r="Q80" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>18</v>
@@ -3300,19 +3532,19 @@
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D81" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="O81" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O81" s="21" t="s">
         <v>22</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q81" s="11" t="s">
-        <v>291</v>
+        <v>221</v>
+      </c>
+      <c r="Q81" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>19</v>
@@ -3320,19 +3552,19 @@
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D82" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O82" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O82" s="21" t="s">
         <v>22</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q82" s="11" t="s">
-        <v>290</v>
+        <v>222</v>
+      </c>
+      <c r="Q82" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="R82" s="3" t="s">
         <v>19</v>
@@ -3340,19 +3572,19 @@
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O83" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O83" s="21" t="s">
         <v>22</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q83" s="11" t="s">
-        <v>203</v>
+        <v>223</v>
+      </c>
+      <c r="Q83" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>18</v>
@@ -3362,17 +3594,17 @@
       <c r="D84" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K84" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="O84" s="22" t="s">
+      <c r="K84" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O84" s="21" t="s">
         <v>103</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q84" s="11" t="s">
-        <v>265</v>
+        <v>224</v>
+      </c>
+      <c r="Q84" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="R84" s="3" t="s">
         <v>19</v>
@@ -3380,37 +3612,37 @@
     </row>
     <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O85" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O85" s="21" t="s">
         <v>22</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q85" s="11" t="s">
-        <v>295</v>
+        <v>225</v>
+      </c>
+      <c r="Q85" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="R85" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
+    <row r="86" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
     </row>
     <row r="87" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H87" s="20" t="s">
-        <v>212</v>
+      <c r="H87" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>97</v>
@@ -3418,8 +3650,8 @@
       <c r="P87" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Q87" s="11" t="s">
-        <v>207</v>
+      <c r="Q87" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>18</v>
@@ -3510,7 +3742,7 @@
         <v>113</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>22</v>
@@ -3519,7 +3751,7 @@
         <v>127</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R92" s="3" t="s">
         <v>19</v>
@@ -3530,7 +3762,7 @@
         <v>105</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>112</v>
@@ -3538,697 +3770,697 @@
       <c r="P93" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="Q93" s="11" t="s">
-        <v>296</v>
+      <c r="Q93" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="R93" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="15"/>
-      <c r="S94" s="15"/>
-    </row>
-    <row r="95" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="19"/>
-      <c r="S95" s="19"/>
-    </row>
-    <row r="96" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="19"/>
-      <c r="S96" s="19"/>
-    </row>
-    <row r="97" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="19"/>
-      <c r="S97" s="19"/>
-    </row>
-    <row r="98" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
-      <c r="R98" s="19"/>
-      <c r="S98" s="19"/>
-    </row>
-    <row r="99" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O99" s="13"/>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="13"/>
-      <c r="R99" s="15"/>
-      <c r="S99" s="15"/>
+    <row r="94" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="14"/>
+    </row>
+    <row r="95" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+    </row>
+    <row r="96" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+    </row>
+    <row r="97" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="18"/>
+      <c r="S97" s="18"/>
+    </row>
+    <row r="98" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+    </row>
+    <row r="99" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="14"/>
+      <c r="S99" s="14"/>
     </row>
     <row r="100" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="H100" s="20" t="s">
+      <c r="A100" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="H100" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q100" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="23"/>
+      <c r="B101" s="23">
+        <v>1110</v>
+      </c>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="I101" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q101" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="23"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23">
+        <v>1111</v>
+      </c>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="J102" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="O102" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q102" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="K103" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O103" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="O100" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="P100" s="2" t="s">
+      <c r="P103" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q103" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="K104" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q104" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="R104" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="23"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="K105" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q105" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="R105" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F106" s="23"/>
+      <c r="L106" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q106" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R106" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23">
+        <v>1112</v>
+      </c>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="J107" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="23"/>
+      <c r="B108" s="23">
+        <v>1120</v>
+      </c>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q108" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="14"/>
+      <c r="S109" s="14"/>
+    </row>
+    <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+    </row>
+    <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+    </row>
+    <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+    </row>
+    <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+    </row>
+    <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+    </row>
+    <row r="115" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="14"/>
+      <c r="S115" s="14"/>
+    </row>
+    <row r="116" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="23">
+        <v>1700</v>
+      </c>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="H116" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q116" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="Q100" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24">
-        <v>1110</v>
-      </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="I101" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="O101" s="2" t="s">
+      <c r="R116" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23">
+        <v>1710</v>
+      </c>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="I117" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R117" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="P101" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q101" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24">
-        <v>1111</v>
-      </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="J102" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="O102" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q102" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="K103" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q103" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="R103" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="K104" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O104" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="P104" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q104" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="R104" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="K105" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q105" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="R105" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="F106" s="24"/>
-      <c r="L106" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="O106" s="2" t="s">
+    </row>
+    <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23">
+        <v>1711</v>
+      </c>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="J118" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23">
+        <v>1712</v>
+      </c>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="J119" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="R119" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="P106" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q106" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="R106" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24">
-        <v>1112</v>
-      </c>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="J107" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q107" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="R107" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24">
-        <v>1120</v>
-      </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="O108" s="2" t="s">
+    </row>
+    <row r="120" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="23"/>
+      <c r="B120" s="23">
+        <v>1720</v>
+      </c>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="I120" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="O120" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q120" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="R120" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23">
+        <v>1721</v>
+      </c>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="J121" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q121" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="R121" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="14"/>
+      <c r="S122" s="14"/>
+    </row>
+    <row r="123" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+    </row>
+    <row r="124" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+    </row>
+    <row r="125" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+    </row>
+    <row r="126" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+    </row>
+    <row r="127" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+    </row>
+    <row r="128" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="O128" s="12"/>
+      <c r="P128" s="12"/>
+      <c r="Q128" s="12"/>
+      <c r="R128" s="14"/>
+      <c r="S128" s="14"/>
+    </row>
+    <row r="129" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="23">
+        <v>1900</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="H129" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q129" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="R129" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="23"/>
+      <c r="B130" s="23">
+        <v>1910</v>
+      </c>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="I130" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P130" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q130" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="R130" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="P108" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q108" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="R108" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="O109" s="13"/>
-      <c r="P109" s="13"/>
-      <c r="Q109" s="13"/>
-      <c r="R109" s="15"/>
-      <c r="S109" s="15"/>
-    </row>
-    <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-    </row>
-    <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="24"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-    </row>
-    <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-    </row>
-    <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-    </row>
-    <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-    </row>
-    <row r="115" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="O115" s="13"/>
-      <c r="P115" s="13"/>
-      <c r="Q115" s="13"/>
-      <c r="R115" s="15"/>
-      <c r="S115" s="15"/>
-    </row>
-    <row r="116" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="24">
-        <v>1700</v>
-      </c>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="H116" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="P116" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q116" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="R116" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24">
-        <v>1710</v>
-      </c>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="I117" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="O117" s="2" t="s">
+    </row>
+    <row r="131" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23">
+        <v>1911</v>
+      </c>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="J131" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P131" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q131" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="R131" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="P117" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q117" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="R117" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24">
-        <v>1711</v>
-      </c>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="J118" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q118" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24">
-        <v>1712</v>
-      </c>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="J119" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="P119" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q119" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="R119" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24">
-        <v>1720</v>
-      </c>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="I120" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="O120" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q120" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="R120" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24">
-        <v>1721</v>
-      </c>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="J121" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O121" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="P121" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q121" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="R121" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="O122" s="13"/>
-      <c r="P122" s="13"/>
-      <c r="Q122" s="13"/>
-      <c r="R122" s="15"/>
-      <c r="S122" s="15"/>
-    </row>
-    <row r="123" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="24"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-    </row>
-    <row r="124" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-    </row>
-    <row r="125" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-    </row>
-    <row r="126" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-    </row>
-    <row r="127" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-    </row>
-    <row r="128" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="O128" s="13"/>
-      <c r="P128" s="13"/>
-      <c r="Q128" s="13"/>
-      <c r="R128" s="15"/>
-      <c r="S128" s="15"/>
-    </row>
-    <row r="129" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="24">
-        <v>1900</v>
-      </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="H129" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="O129" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="P129" s="2" t="s">
+    </row>
+    <row r="132" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="23"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23">
+        <v>1912</v>
+      </c>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="J132" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="Q129" s="11" t="s">
+      <c r="O132" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q132" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="R132" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="23"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23">
+        <v>1913</v>
+      </c>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="J133" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="R129" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24">
-        <v>1910</v>
-      </c>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="I130" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="O130" s="2" t="s">
+      <c r="O133" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P133" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q133" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R133" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="P130" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q130" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="R130" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24">
-        <v>1911</v>
-      </c>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="J131" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="P131" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q131" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="R131" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24">
-        <v>1912</v>
-      </c>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="J132" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="P132" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q132" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="R132" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="24"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24">
-        <v>1913</v>
-      </c>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="J133" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="O133" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="P133" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q133" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="R133" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" s="12" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="13"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="O134" s="13"/>
-      <c r="P134" s="13"/>
-      <c r="Q134" s="13"/>
-      <c r="R134" s="15"/>
-      <c r="S134" s="15"/>
+    </row>
+    <row r="134" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="O134" s="12"/>
+      <c r="P134" s="12"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="14"/>
+      <c r="S134" s="14"/>
     </row>
     <row r="135" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
@@ -4260,4 +4492,255 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8C6BB-484E-4F7F-AD82-819ED4A15748}">
+  <dimension ref="D6:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" t="s">
+        <v>352</v>
+      </c>
+      <c r="J6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F7" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" t="s">
+        <v>348</v>
+      </c>
+      <c r="J7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" t="s">
+        <v>349</v>
+      </c>
+      <c r="H8" t="s">
+        <v>352</v>
+      </c>
+      <c r="J8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s">
+        <v>348</v>
+      </c>
+      <c r="H9" t="s">
+        <v>352</v>
+      </c>
+      <c r="J9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F10" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F11" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11" t="s">
+        <v>362</v>
+      </c>
+      <c r="K11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F12" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" t="s">
+        <v>348</v>
+      </c>
+      <c r="H12" t="s">
+        <v>352</v>
+      </c>
+      <c r="K12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K13" t="s">
+        <v>359</v>
+      </c>
+      <c r="M13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>348</v>
+      </c>
+      <c r="K14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J16" t="s">
+        <v>363</v>
+      </c>
+      <c r="K16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F17" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G18" t="s">
+        <v>348</v>
+      </c>
+      <c r="J18" t="s">
+        <v>366</v>
+      </c>
+      <c r="K18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" t="s">
+        <v>351</v>
+      </c>
+      <c r="K20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="F21" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>365</v>
+      </c>
+      <c r="K22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>370</v>
+      </c>
+      <c r="F27" t="s">
+        <v>368</v>
+      </c>
+      <c r="G27" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>371</v>
+      </c>
+      <c r="F28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/06_pagevolume/Wegloo_pageVolume.xlsx
+++ b/06_pagevolume/Wegloo_pageVolume.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\도경진\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCID_document\06_pagevolume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2A5020-3B77-47A4-9096-8B9175D0D9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895BE24E-E8B7-4240-8B5A-5F94A13EE2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pagerVolume_ver_02" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="pagerVolume_ver_01" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="417">
   <si>
     <t>Wegloo PageVolume</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,23 +468,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(보드메뉴 수정) 게시글 작성 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(글쓰기) 게시글 작성 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글(작성, 삭제, 대댓글), 메뉴(수정,삭제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 Dialog 화면 이용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성, 취소, Text, Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -822,11 +813,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 Item list, 
-Item (좋아요 수, 댓글 수, 작성일, 작성자), item…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대여중 물품 list, 대여가능 물품 list, 연체된 물품 list,
 새상품 추가(임원이상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1059,10 +1045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1072,77 +1054,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">기본 Dialog 화면 이용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1112_Attend_000_checkDeleteAttend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 화면 참조:
-그룹 명, 출석인원, 출석현황, 그래프로 출석률 표시, 
-출석인정시간, 지각인정시간, 출결상태, 
-출석버튼, 취소버튼
-(임원 이상만 보이는 화면) 인증번호, 
-(임원 이상만 가능한 출결 수정 버튼)출결관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석체크, 인증번호 입력, 확인 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출결변경, 회원명, 출결, 출석상태, 전화번호(이름중복대책)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog 활용: 출석, 지각, 출결변경버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 명, 출결, 출석상태, 출석일, 날짜(년월일시간), 
-(지각 인증 시간이내일 경우) 출석 인증, 지각 인증 시간 표시
-출석추가버튼(임원이상만 보이는 버튼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(출석) 출석하기: 출석했을 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11_31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111_Attend_300_chageAttendManagement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111_Attend_100_attemptAttendYet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111_Attend_200_attemptAttendAlready</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 Toast Message 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1160,10 +1071,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1111_Attend_000_detailAttend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1700_Notice_000_mainNotice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1187,11 +1094,6 @@
   <si>
     <t>기본 PopUp 메뉴 이용:
  대여하기(반납하기), 기록보기, 삭제(임원이상 보임)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 PopUp 메뉴 이용:
-상세보기, 삭제하기(임원이상만 보이는 버튼)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1383,51 +1285,6 @@
   </si>
   <si>
     <t>1913_MemberList_000_kickOutMember</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(출석) 출석하기: 미출석 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(임원이상만) 출석메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1110_Attend_000_adminMenuAttend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제 확인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1111_Attend_000_detailAttend" 으로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1120_Attend_000_userMenuAttend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button or 
-"1120_Attend_000_userMenuAttend"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(출결관리자, 임원이상만) 출결변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(출결상태변경) 출결변경상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111_Attend_310_checkAttendState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1474,11 +1331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비회원이 볼 수 있거나 
-회원가입시 자동 동아리 선택 기능이 되거나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">가계부 </t>
     </r>
@@ -1603,19 +1455,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물품 등록하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동아리 활동 &gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>물품관리 &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동아리 정보 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1671,6 +1515,347 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Text: 제목, 본문, 
+Event: 작성(확인), 취소, 사진올리기(이동 -&gt; 721_BoardClub_000_systemGallery)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(출석중)출석하기, (출석중x)출석시간이 아닙니다.
+(임원 이상만) 출석시작하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110_Attend_000_adminAttend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(임원이상만) 출석시작하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석시작을 위한 설정창으로 출석시간을 언제까지, 지각 시간은 언제까지인지 설정하는 Dialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button or Text Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(임원이상만)
+(출석취소) 출석취소 확인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120_Attend_000_checkCancelAttend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(출석하기) 출석 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 디자인된 화면 참조:
+①출석인원, ②출석현황, ③그래프로 출석률 표시, 
+④출석인정시간, ⑤지각인정시간, ⑥출결상태
+⑦(임원 이상만 보이는 화면) 인증번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(임원이상만) 회원 출결상태 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member name Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석, 지각, 결석
+기본 Popup 화면 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1130_Attend_000_attemptAttendYet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1130_Attend_000_attemptAttend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석 인증코드를 넣는 Dialog
+기본 Dialog 화면 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1131_Attend_000_detailAttend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정관리
+Calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(글쓰기) 글쓰기 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보드메뉴 수정) 글쓰기 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Swipe) 이전/다음 달로 이동
+(Filter) Button만 구현
+(Drawer) 서랍을 통해 한달 일정 모두 보기: 클릭 날로 자동 정렬(Default = today)
+달력 구현!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400_Calendar_000_mainCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본문(프로필 사진, 작성자, 자성시간, 제목, 본문, 사진), 
+댓글(작성, 삭제, 대댓글), 
+메뉴(수정,삭제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 Item list, 
+Item (제목, 본문, 프로필 사진, 작성일, 작성자, 댓글 수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch or Day Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 일정 상세 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410_Calendar_000_detailDayCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원이 볼 수 있게 하거나
+회원가입시 자동 동아리 선택 기능이거나 조심해야될 기능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 일, 일정, 기간 별 등록된 Calendar data를 
+Dialog로 띄워 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch or Item Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품 관리하기 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①물품 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②물품 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③물품 대여 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체문자 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 정보 수정 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②소개글 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①사진 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출결정보확인 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 승인 요청 &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①회원별 출결정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②일자 별 출결정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③지각자 별 지각비(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①승인요청인의 소개글 및 프로필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②승인/거절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411_Calendar_000_detailScheduleCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420_Calendar_000_insertScheduleCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정추가 페이지
+①제목, ②Category(할일, 일정, 기간), ③언제, 
+④어디서, ⑤메모, ⑥색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button or Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>421_Calendar_000_systemCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제(날짜)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제(시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>422_Calendar_000_systemClock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(임원 이상만) 일정 추가하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 Schedule의 상세 내용을 보여주고 수정할 수 있는 화면
+-&gt; (임원 이상만) "420_Calendar_000_insertScheduleCalendar" 
+위의 Screen과 동일하게 하거나 별도 제작.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품 관리하기 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체문자 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 정보 수정 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출결정보확인 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 승인 요청 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>ICON Button
+(Category)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1679,7 +1864,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1746,6 +1931,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1773,7 +1966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1833,13 +2026,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1915,6 +2226,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1942,13 +2274,88 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2265,10 +2672,2730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S136"/>
+  <dimension ref="A1:U134"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="105" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="K31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O59" sqref="H31:R59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="5.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="34" width="12.625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="12" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="7" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="F23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16">
+        <v>130</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="I25" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="R25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16">
+        <v>131</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="J26" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="R26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="18"/>
+    </row>
+    <row r="27" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="K27" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="R27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16">
+        <v>132</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="J28" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="R28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="K29" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="R29" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2">
+        <v>210</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="I32" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2">
+        <v>220</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="I33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="I34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2">
+        <v>231</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="J35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2">
+        <v>232</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="J36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q36" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="R36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" s="28"/>
+    </row>
+    <row r="37" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2">
+        <v>240</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="I37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P37" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q37" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="R37" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="S37" s="59"/>
+      <c r="T37" s="54"/>
+    </row>
+    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2">
+        <v>250</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="I38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="P38" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q38" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="R38" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="S38" s="59"/>
+      <c r="T38" s="54"/>
+    </row>
+    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
+        <v>251</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="J39" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="R39" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="S39" s="59"/>
+      <c r="T39" s="54"/>
+    </row>
+    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
+        <v>252</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="J40" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="54"/>
+    </row>
+    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2">
+        <v>253</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="J41" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="54"/>
+    </row>
+    <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2">
+        <v>254</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="J42" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="54"/>
+    </row>
+    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2">
+        <v>255</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="J43" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="N43" s="45"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="54"/>
+    </row>
+    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="R44" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="S44" s="59"/>
+      <c r="T44" s="54"/>
+    </row>
+    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="54"/>
+    </row>
+    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="59"/>
+      <c r="T46" s="54"/>
+    </row>
+    <row r="47" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="K47" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="59"/>
+      <c r="T47" s="54"/>
+    </row>
+    <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2">
+        <v>256</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="J48" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="54"/>
+    </row>
+    <row r="49" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="K49" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="N49" s="45"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="65"/>
+      <c r="Q49" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="R49" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="S49" s="59"/>
+      <c r="T49" s="54"/>
+    </row>
+    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2">
+        <v>257</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="J50" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="N50" s="45"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="54"/>
+    </row>
+    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="L51" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="M51" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="N51" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="O51" s="60"/>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="R51" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="S51" s="59"/>
+      <c r="T51" s="54"/>
+    </row>
+    <row r="52" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="L52" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="M52" s="43"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="66"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="54"/>
+    </row>
+    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="D53" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="L53" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="M53" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="N53" s="44"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="54"/>
+    </row>
+    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="L54" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="M54" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="N54" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="O54" s="60"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="54"/>
+    </row>
+    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K55" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="L55" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="M55" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="N55" s="45"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="1">
+        <f ca="1">+U51:LL58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2">
+        <v>258</v>
+      </c>
+      <c r="J56" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="R56" s="60"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="54"/>
+    </row>
+    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K57" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="R57" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="S57" s="59"/>
+      <c r="T57" s="54"/>
+    </row>
+    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K58" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="N58" s="45"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="59"/>
+      <c r="T58" s="54"/>
+    </row>
+    <row r="59" spans="1:21" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O59" s="56"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="57"/>
+      <c r="S59" s="57"/>
+    </row>
+    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+    </row>
+    <row r="68" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2">
+        <v>410</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="I69" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q69" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2">
+        <v>411</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="J70" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q70" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2">
+        <v>420</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="I71" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q71" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2">
+        <v>421</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="J72" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q72" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2">
+        <v>422</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="J73" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q73" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+    </row>
+    <row r="76" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O79" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q79" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O80" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q80" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O81" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q81" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O82" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q82" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O83" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q83" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O84" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q84" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O85" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q85" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="R85" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+    </row>
+    <row r="87" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H87" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q87" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="R87" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q88" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q91" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R92" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="B93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q93" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="R93" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="14"/>
+    </row>
+    <row r="95" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+    </row>
+    <row r="96" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+    </row>
+    <row r="97" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="18"/>
+      <c r="S97" s="18"/>
+    </row>
+    <row r="98" spans="1:19" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+    </row>
+    <row r="99" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="14"/>
+      <c r="S99" s="14"/>
+    </row>
+    <row r="100" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="H100" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q100" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="23"/>
+      <c r="B101" s="23">
+        <v>1110</v>
+      </c>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="I101" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q101" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="30"/>
+      <c r="B102" s="31">
+        <v>1120</v>
+      </c>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="I102" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="J102" s="10"/>
+      <c r="O102" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="30"/>
+      <c r="B103" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="I103" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="J103" s="10"/>
+      <c r="O103" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q103" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="30"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O104" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q104" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="R104" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="30"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="K105" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q105" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="R105" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+    </row>
+    <row r="107" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="14"/>
+      <c r="S107" s="14"/>
+    </row>
+    <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="23"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+    </row>
+    <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+    </row>
+    <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+    </row>
+    <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+    </row>
+    <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+    </row>
+    <row r="113" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="14"/>
+      <c r="S113" s="14"/>
+    </row>
+    <row r="114" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="23">
+        <v>1700</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="H114" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q114" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R114" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="23"/>
+      <c r="B115" s="23">
+        <v>1710</v>
+      </c>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="I115" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23">
+        <v>1711</v>
+      </c>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="J116" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23">
+        <v>1712</v>
+      </c>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="J117" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R117" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="23"/>
+      <c r="B118" s="23">
+        <v>1720</v>
+      </c>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="I118" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O118" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q118" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R118" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23">
+        <v>1721</v>
+      </c>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="J119" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="R119" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="14"/>
+      <c r="S120" s="14"/>
+    </row>
+    <row r="121" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+    </row>
+    <row r="122" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+    </row>
+    <row r="123" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+    </row>
+    <row r="124" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+    </row>
+    <row r="125" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+    </row>
+    <row r="126" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="O126" s="12"/>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="14"/>
+      <c r="S126" s="14"/>
+    </row>
+    <row r="127" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="23">
+        <v>1900</v>
+      </c>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="H127" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q127" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="R127" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="23"/>
+      <c r="B128" s="23">
+        <v>1910</v>
+      </c>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="I128" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q128" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="R128" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23">
+        <v>1911</v>
+      </c>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="J129" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="R129" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23">
+        <v>1912</v>
+      </c>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="J130" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P130" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q130" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="R130" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23">
+        <v>1913</v>
+      </c>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="J131" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P131" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q131" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="R131" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="O132" s="12"/>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="14"/>
+      <c r="S132" s="14"/>
+    </row>
+    <row r="133" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="R51:R56"/>
+    <mergeCell ref="Q39:Q42"/>
+    <mergeCell ref="R39:R42"/>
+    <mergeCell ref="Q51:Q55"/>
+    <mergeCell ref="O39:O58"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8C6BB-484E-4F7F-AD82-819ED4A15748}">
+  <dimension ref="D6:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="14" width="18.625" customWidth="1"/>
+    <col min="15" max="17" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" t="s">
+        <v>316</v>
+      </c>
+      <c r="J6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F7" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G8" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" t="s">
+        <v>316</v>
+      </c>
+      <c r="J8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" t="s">
+        <v>316</v>
+      </c>
+      <c r="J9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F10" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F11" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F12" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H12" t="s">
+        <v>316</v>
+      </c>
+      <c r="K12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F13" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>312</v>
+      </c>
+      <c r="K13" t="s">
+        <v>323</v>
+      </c>
+      <c r="O13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>312</v>
+      </c>
+      <c r="K14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J16" t="s">
+        <v>326</v>
+      </c>
+      <c r="K16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="F17" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" t="s">
+        <v>312</v>
+      </c>
+      <c r="J18" t="s">
+        <v>328</v>
+      </c>
+      <c r="K18" t="s">
+        <v>371</v>
+      </c>
+      <c r="L18" t="s">
+        <v>372</v>
+      </c>
+      <c r="M18" t="s">
+        <v>373</v>
+      </c>
+      <c r="N18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+      <c r="K19" t="s">
+        <v>375</v>
+      </c>
+      <c r="L19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" t="s">
+        <v>315</v>
+      </c>
+      <c r="K20" t="s">
+        <v>377</v>
+      </c>
+      <c r="L20" t="s">
+        <v>379</v>
+      </c>
+      <c r="M20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="F21" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="G21" t="s">
+        <v>314</v>
+      </c>
+      <c r="K21" t="s">
+        <v>380</v>
+      </c>
+      <c r="L21" t="s">
+        <v>382</v>
+      </c>
+      <c r="M21" t="s">
+        <v>383</v>
+      </c>
+      <c r="N21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>381</v>
+      </c>
+      <c r="L22" t="s">
+        <v>385</v>
+      </c>
+      <c r="N22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>327</v>
+      </c>
+      <c r="K24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F27" t="s">
+        <v>330</v>
+      </c>
+      <c r="G27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>333</v>
+      </c>
+      <c r="F28" t="s">
+        <v>331</v>
+      </c>
+      <c r="G28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9124B698-58B4-4DE7-867F-E61F7D5602EC}">
+  <dimension ref="A1:S134"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2284,7 +5411,7 @@
     <col min="14" max="14" width="8.875" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="27.25" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.625" style="2" customWidth="1"/>
     <col min="18" max="18" width="6.375" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.875" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="34" width="12.625" style="1" customWidth="1"/>
@@ -2305,15 +5432,15 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
@@ -2410,7 +5537,7 @@
         <v>86</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>22</v>
@@ -2419,7 +5546,7 @@
         <v>44</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>18</v>
@@ -2439,7 +5566,7 @@
         <v>45</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>18</v>
@@ -2459,7 +5586,7 @@
         <v>46</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>18</v>
@@ -2501,7 +5628,7 @@
         <v>50</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>63</v>
@@ -2535,7 +5662,7 @@
         <v>89</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>26</v>
@@ -2727,19 +5854,19 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="I25" s="22" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="S25" s="18"/>
     </row>
@@ -2753,19 +5880,19 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="J26" s="15" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q26" s="17" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S26" s="18"/>
     </row>
@@ -2774,24 +5901,24 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="K27" s="15" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O27" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="P27" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="P27" s="16" t="s">
-        <v>243</v>
-      </c>
       <c r="Q27" s="17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="R27" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S27" s="18"/>
     </row>
@@ -2805,19 +5932,19 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="J28" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q28" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="R28" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S28" s="18"/>
     </row>
@@ -2826,24 +5953,24 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="K29" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q29" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="O29" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>251</v>
-      </c>
       <c r="R29" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="S29" s="18"/>
     </row>
@@ -2868,7 +5995,7 @@
         <v>91</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>18</v>
@@ -2882,16 +6009,16 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="I32" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>18</v>
@@ -2906,16 +6033,16 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="I33" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>18</v>
@@ -2936,10 +6063,10 @@
         <v>93</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>18</v>
@@ -2954,14 +6081,14 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="J35" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>19</v>
@@ -2976,14 +6103,14 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="J36" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>19</v>
@@ -3004,10 +6131,10 @@
         <v>95</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>19</v>
@@ -3028,10 +6155,10 @@
         <v>97</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>18</v>
@@ -3041,23 +6168,23 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="I39" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O39" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="O39" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="R39" s="26" t="s">
+      <c r="Q39" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="R39" s="33" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3065,272 +6192,273 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="I40" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O40" s="30"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="30"/>
+        <v>136</v>
+      </c>
+      <c r="O40" s="37"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="37"/>
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="I41" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O41" s="30"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="30"/>
+        <v>134</v>
+      </c>
+      <c r="O41" s="37"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="37"/>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="I42" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O42" s="30"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="30"/>
+        <v>135</v>
+      </c>
+      <c r="O42" s="37"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="37"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="I43" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="O43" s="30"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="30"/>
+        <v>169</v>
+      </c>
+      <c r="O43" s="37"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="37"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="I44" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O44" s="30"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="30"/>
+        <v>137</v>
+      </c>
+      <c r="O44" s="37"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="37"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="I45" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O45" s="30"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="30"/>
+        <v>138</v>
+      </c>
+      <c r="O45" s="37"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="37"/>
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="I46" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="J46" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="O46" s="30"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="30"/>
+        <v>150</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="O46" s="37"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="37"/>
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="I47" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O47" s="30"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="30"/>
+        <v>139</v>
+      </c>
+      <c r="O47" s="37"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="37"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="I48" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O48" s="30"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="30"/>
+        <v>140</v>
+      </c>
+      <c r="O48" s="37"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="37"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="I49" s="20"/>
-      <c r="J49" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="O49" s="30"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="30"/>
+      <c r="J49" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="O49" s="37"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="37"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="I50" s="20"/>
-      <c r="J50" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="O50" s="30"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="30"/>
+      <c r="J50" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="O50" s="37"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="37"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="I51" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O51" s="30"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="30"/>
-    </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="O51" s="37"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="37"/>
+    </row>
+    <row r="52" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="I52" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="L52" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="O52" s="30"/>
+        <v>307</v>
+      </c>
+      <c r="L52" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="M52" s="42"/>
+      <c r="O52" s="37"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="30"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="37"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O53" s="30"/>
+        <v>133</v>
+      </c>
+      <c r="O53" s="37"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="30"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="37"/>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="J54" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="O54" s="30"/>
+        <v>180</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="O54" s="37"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="30"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="37"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
@@ -3342,12 +6470,12 @@
         <v>19</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="O55" s="27"/>
+        <v>290</v>
+      </c>
+      <c r="O55" s="34"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="27"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="34"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
@@ -3369,17 +6497,17 @@
         <v>13</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="O57" s="26" t="s">
-        <v>230</v>
+        <v>286</v>
+      </c>
+      <c r="O57" s="33" t="s">
+        <v>225</v>
       </c>
       <c r="P57" s="1"/>
-      <c r="Q57" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="R57" s="26" t="s">
-        <v>313</v>
+      <c r="Q57" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="R57" s="33" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3392,12 +6520,12 @@
         <v>14</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O58" s="27"/>
+        <v>287</v>
+      </c>
+      <c r="O58" s="34"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="27"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="34"/>
     </row>
     <row r="59" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O59" s="12"/>
@@ -3408,7 +6536,7 @@
     </row>
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
@@ -3418,10 +6546,152 @@
       <c r="R67" s="14"/>
       <c r="S67" s="14"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2">
+        <v>410</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="I69" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q69" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2">
+        <v>411</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="J70" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q70" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2">
+        <v>420</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="I71" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q71" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2">
+        <v>421</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="J72" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q72" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2">
+        <v>422</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="J73" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q73" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O75" s="12"/>
@@ -3432,19 +6702,19 @@
     </row>
     <row r="76" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q76" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>18</v>
@@ -3452,19 +6722,19 @@
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="R77" s="3" t="s">
         <v>18</v>
@@ -3472,19 +6742,19 @@
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="R78" s="3" t="s">
         <v>19</v>
@@ -3492,19 +6762,19 @@
     </row>
     <row r="79" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O79" s="21" t="s">
         <v>103</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q79" s="10" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>19</v>
@@ -3512,19 +6782,19 @@
     </row>
     <row r="80" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>18</v>
@@ -3532,19 +6802,19 @@
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D81" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O81" s="21" t="s">
         <v>22</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q81" s="10" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>19</v>
@@ -3552,19 +6822,19 @@
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D82" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O82" s="21" t="s">
         <v>22</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q82" s="10" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="R82" s="3" t="s">
         <v>19</v>
@@ -3572,19 +6842,19 @@
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O83" s="21" t="s">
         <v>22</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q83" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>18</v>
@@ -3595,16 +6865,16 @@
         <v>51</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O84" s="21" t="s">
         <v>103</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q84" s="10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="R84" s="3" t="s">
         <v>19</v>
@@ -3612,19 +6882,19 @@
     </row>
     <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O85" s="21" t="s">
         <v>22</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="R85" s="3" t="s">
         <v>19</v>
@@ -3642,22 +6912,22 @@
         <v>99</v>
       </c>
       <c r="H87" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>97</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>100</v>
       </c>
@@ -3668,10 +6938,10 @@
         <v>103</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q88" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
+      </c>
+      <c r="Q88" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="R88" s="3" t="s">
         <v>18</v>
@@ -3688,10 +6958,10 @@
         <v>22</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>19</v>
@@ -3699,39 +6969,39 @@
     </row>
     <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>107</v>
+        <v>359</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="R90" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>108</v>
+        <v>358</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
+      </c>
+      <c r="Q91" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>18</v>
@@ -3739,19 +7009,19 @@
     </row>
     <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="R92" s="3" t="s">
         <v>19</v>
@@ -3762,16 +7032,16 @@
         <v>105</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q93" s="10" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="R93" s="3" t="s">
         <v>19</v>
@@ -3821,7 +7091,7 @@
     </row>
     <row r="100" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
@@ -3829,19 +7099,19 @@
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
       <c r="H100" s="19" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="Q100" s="10" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="R100" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3854,209 +7124,164 @@
       <c r="E101" s="23"/>
       <c r="F101" s="23"/>
       <c r="I101" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q101" s="10" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="R101" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="23"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23">
-        <v>1111</v>
-      </c>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="J102" s="1" t="s">
-        <v>331</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="30"/>
+      <c r="B102" s="31">
+        <v>1120</v>
+      </c>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="I102" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="J102" s="10"/>
       <c r="O102" s="10" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q102" s="10" t="s">
-        <v>265</v>
+        <v>345</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="30"/>
+      <c r="B103" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="I103" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="J103" s="10"/>
+      <c r="O103" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q103" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="30"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O104" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q104" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="R104" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="30"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="K103" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q103" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="R103" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="23"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="K104" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="O104" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P104" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q104" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="R104" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="23"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
       <c r="K105" s="1" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="Q105" s="10" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="R105" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="F106" s="23"/>
-      <c r="L106" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="O106" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q106" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="R106" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="23"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23">
-        <v>1112</v>
-      </c>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="J107" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q107" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="R107" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+    </row>
+    <row r="107" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="14"/>
+      <c r="S107" s="14"/>
+    </row>
+    <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
-      <c r="B108" s="23">
-        <v>1120</v>
-      </c>
+      <c r="B108" s="23"/>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="P108" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q108" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="R108" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="14"/>
+    </row>
+    <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
     </row>
     <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
@@ -4082,194 +7307,194 @@
       <c r="E112" s="23"/>
       <c r="F112" s="23"/>
     </row>
-    <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="23"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-    </row>
-    <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="23"/>
+    <row r="113" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="14"/>
+      <c r="S113" s="14"/>
+    </row>
+    <row r="114" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="23">
+        <v>1700</v>
+      </c>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
-    </row>
-    <row r="115" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="14"/>
-      <c r="S115" s="14"/>
-    </row>
-    <row r="116" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="23">
-        <v>1700</v>
-      </c>
+      <c r="H114" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q114" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="R114" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="23"/>
+      <c r="B115" s="23">
+        <v>1710</v>
+      </c>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="I115" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="23"/>
       <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
+      <c r="C116" s="23">
+        <v>1711</v>
+      </c>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
-      <c r="H116" s="19" t="s">
-        <v>280</v>
+      <c r="J116" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q116" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="R116" s="3" t="s">
-        <v>234</v>
+        <v>277</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
-      <c r="B117" s="23">
-        <v>1710</v>
-      </c>
-      <c r="C117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23">
+        <v>1712</v>
+      </c>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
       <c r="F117" s="23"/>
-      <c r="I117" s="1" t="s">
-        <v>300</v>
+      <c r="J117" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="R117" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="23">
-        <v>1711</v>
-      </c>
+      <c r="B118" s="23">
+        <v>1720</v>
+      </c>
+      <c r="C118" s="23"/>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
       <c r="F118" s="23"/>
-      <c r="J118" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>230</v>
+      <c r="I118" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O118" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q118" s="2" t="s">
-        <v>303</v>
+        <v>278</v>
+      </c>
+      <c r="Q118" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R118" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="23"/>
       <c r="C119" s="23">
-        <v>1712</v>
+        <v>1721</v>
       </c>
       <c r="D119" s="23"/>
       <c r="E119" s="23"/>
       <c r="F119" s="23"/>
       <c r="J119" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="R119" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="23"/>
-      <c r="B120" s="23">
-        <v>1720</v>
-      </c>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
-      <c r="I120" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="O120" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q120" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="R120" s="3" t="s">
-        <v>234</v>
-      </c>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="14"/>
+      <c r="S120" s="14"/>
     </row>
     <row r="121" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="23"/>
-      <c r="C121" s="23">
-        <v>1721</v>
-      </c>
+      <c r="C121" s="23"/>
       <c r="D121" s="23"/>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
-      <c r="J121" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="O121" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="P121" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q121" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="R121" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="24"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="O122" s="12"/>
-      <c r="P122" s="12"/>
-      <c r="Q122" s="12"/>
-      <c r="R122" s="14"/>
-      <c r="S122" s="14"/>
+    </row>
+    <row r="122" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
     </row>
     <row r="123" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
@@ -4295,191 +7520,175 @@
       <c r="E125" s="23"/>
       <c r="F125" s="23"/>
     </row>
-    <row r="126" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="23"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-    </row>
-    <row r="127" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="23"/>
+    <row r="126" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="O126" s="12"/>
+      <c r="P126" s="12"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="14"/>
+      <c r="S126" s="14"/>
+    </row>
+    <row r="127" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="23">
+        <v>1900</v>
+      </c>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
       <c r="D127" s="23"/>
       <c r="E127" s="23"/>
       <c r="F127" s="23"/>
-    </row>
-    <row r="128" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="O128" s="12"/>
-      <c r="P128" s="12"/>
-      <c r="Q128" s="12"/>
-      <c r="R128" s="14"/>
-      <c r="S128" s="14"/>
-    </row>
-    <row r="129" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="23">
-        <v>1900</v>
-      </c>
+      <c r="H127" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q127" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="R127" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="23"/>
+      <c r="B128" s="23">
+        <v>1910</v>
+      </c>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="I128" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q128" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="R128" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="23"/>
       <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
+      <c r="C129" s="23">
+        <v>1911</v>
+      </c>
       <c r="D129" s="23"/>
       <c r="E129" s="23"/>
       <c r="F129" s="23"/>
-      <c r="H129" s="19" t="s">
-        <v>315</v>
+      <c r="J129" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q129" s="10" t="s">
-        <v>317</v>
+        <v>300</v>
+      </c>
+      <c r="Q129" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="R129" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
-      <c r="B130" s="23">
-        <v>1910</v>
-      </c>
-      <c r="C130" s="23"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23">
+        <v>1912</v>
+      </c>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
       <c r="F130" s="23"/>
-      <c r="I130" s="1" t="s">
-        <v>318</v>
+      <c r="J130" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q130" s="10" t="s">
-        <v>319</v>
+        <v>304</v>
+      </c>
+      <c r="Q130" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="R130" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
       <c r="F131" s="23"/>
       <c r="J131" s="1" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="Q131" s="2" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="R131" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="23"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23">
-        <v>1912</v>
-      </c>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="J132" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P132" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q132" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="R132" s="3" t="s">
-        <v>261</v>
-      </c>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="O132" s="12"/>
+      <c r="P132" s="12"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="14"/>
+      <c r="S132" s="14"/>
     </row>
     <row r="133" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="23"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="23">
-        <v>1913</v>
-      </c>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
-      <c r="J133" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="O133" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P133" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q133" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="R133" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="O134" s="12"/>
-      <c r="P134" s="12"/>
-      <c r="Q134" s="12"/>
-      <c r="R134" s="14"/>
-      <c r="S134" s="14"/>
-    </row>
-    <row r="135" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="O57:O58"/>
     <mergeCell ref="Q57:Q58"/>
@@ -4487,259 +7696,8 @@
     <mergeCell ref="O39:O55"/>
     <mergeCell ref="Q39:Q55"/>
     <mergeCell ref="R39:R55"/>
+    <mergeCell ref="L52:M52"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8C6BB-484E-4F7F-AD82-819ED4A15748}">
-  <dimension ref="D6:M28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>353</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="G6" t="s">
-        <v>348</v>
-      </c>
-      <c r="H6" t="s">
-        <v>352</v>
-      </c>
-      <c r="J6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="F7" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" t="s">
-        <v>348</v>
-      </c>
-      <c r="J7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="G8" t="s">
-        <v>349</v>
-      </c>
-      <c r="H8" t="s">
-        <v>352</v>
-      </c>
-      <c r="J8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="F9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" t="s">
-        <v>348</v>
-      </c>
-      <c r="H9" t="s">
-        <v>352</v>
-      </c>
-      <c r="J9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="F10" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="F11" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" t="s">
-        <v>350</v>
-      </c>
-      <c r="J11" t="s">
-        <v>362</v>
-      </c>
-      <c r="K11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="F12" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" t="s">
-        <v>348</v>
-      </c>
-      <c r="H12" t="s">
-        <v>352</v>
-      </c>
-      <c r="K12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="F13" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" t="s">
-        <v>348</v>
-      </c>
-      <c r="K13" t="s">
-        <v>359</v>
-      </c>
-      <c r="M13" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="F14" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" t="s">
-        <v>348</v>
-      </c>
-      <c r="K14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="F15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="F16" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J16" t="s">
-        <v>363</v>
-      </c>
-      <c r="K16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F17" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" t="s">
-        <v>348</v>
-      </c>
-      <c r="H17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F18" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G18" t="s">
-        <v>348</v>
-      </c>
-      <c r="J18" t="s">
-        <v>366</v>
-      </c>
-      <c r="K18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F19" s="1"/>
-      <c r="K19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F20" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G20" t="s">
-        <v>351</v>
-      </c>
-      <c r="K20" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F21" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="G21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="J22" t="s">
-        <v>365</v>
-      </c>
-      <c r="K22" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="K23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D27">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>370</v>
-      </c>
-      <c r="F27" t="s">
-        <v>368</v>
-      </c>
-      <c r="G27" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>371</v>
-      </c>
-      <c r="F28" t="s">
-        <v>369</v>
-      </c>
-      <c r="G28" t="s">
-        <v>372</v>
-      </c>
-    </row>
-  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/06_pagevolume/Wegloo_pageVolume.xlsx
+++ b/06_pagevolume/Wegloo_pageVolume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCID_document\06_pagevolume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895BE24E-E8B7-4240-8B5A-5F94A13EE2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900A0888-F0B5-4A43-A959-AABD6C418F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pagerVolume_ver_02" sheetId="1" r:id="rId1"/>
@@ -1617,13 +1617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(Swipe) 이전/다음 달로 이동
-(Filter) Button만 구현
-(Drawer) 서랍을 통해 한달 일정 모두 보기: 클릭 날로 자동 정렬(Default = today)
-달력 구현!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>400_Calendar_000_mainCalendar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1854,6 +1847,13 @@
   <si>
     <t>ICON Button
 (Category)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Swipe) 이전/다음 달로 이동
+(Filter) Button만 구현
+(Drawer) 서랍을 통해 한달 일정 모두 보기: 클릭 날로 자동 정렬(Default -&gt; today)
+달력 구현!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2247,8 +2247,86 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2279,84 +2357,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2672,10 +2672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U134"/>
+  <dimension ref="A1:T134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O59" sqref="H31:R59"/>
+    <sheetView tabSelected="1" topLeftCell="Q46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V55" sqref="V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2711,15 +2711,15 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="P36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q36" s="55" t="s">
+      <c r="Q36" s="40" t="s">
         <v>132</v>
       </c>
       <c r="R36" s="28" t="s">
@@ -3410,17 +3410,17 @@
       <c r="O37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P37" s="53" t="s">
+      <c r="P37" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="Q37" s="58" t="s">
+      <c r="Q37" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="R37" s="59" t="s">
+      <c r="R37" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="S37" s="59"/>
-      <c r="T37" s="54"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="39"/>
     </row>
     <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
@@ -3436,17 +3436,17 @@
       <c r="O38" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="P38" s="53" t="s">
+      <c r="P38" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="Q38" s="46" t="s">
+      <c r="Q38" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="R38" s="59" t="s">
+      <c r="R38" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="S38" s="59"/>
-      <c r="T38" s="54"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
@@ -3456,25 +3456,25 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="J39" s="43" t="s">
+      <c r="J39" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="49" t="s">
-        <v>416</v>
-      </c>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="49" t="s">
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="R39" s="61" t="s">
+      <c r="R39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="S39" s="59"/>
-      <c r="T39" s="54"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="39"/>
     </row>
     <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
@@ -3484,19 +3484,19 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="J40" s="43" t="s">
+      <c r="J40" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="54"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="39"/>
     </row>
     <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
@@ -3506,19 +3506,19 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="J41" s="43" t="s">
+      <c r="J41" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="54"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="39"/>
     </row>
     <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
@@ -3528,19 +3528,19 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="J42" s="43" t="s">
+      <c r="J42" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="54"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="39"/>
     </row>
     <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
@@ -3550,108 +3550,108 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="J43" s="43" t="s">
+      <c r="J43" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="N43" s="45"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="47" t="s">
+      <c r="N43" s="34"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="54"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="39"/>
     </row>
     <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43" t="s">
+      <c r="J44" s="32"/>
+      <c r="K44" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="49" t="s">
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="R44" s="60" t="s">
+      <c r="R44" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S44" s="59"/>
-      <c r="T44" s="54"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="39"/>
     </row>
     <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43" t="s">
+      <c r="J45" s="32"/>
+      <c r="K45" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="54"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="39"/>
     </row>
     <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43" t="s">
+      <c r="J46" s="32"/>
+      <c r="K46" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="54"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="39"/>
     </row>
     <row r="47" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="K47" s="43" t="s">
+      <c r="K47" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="65"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="54"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="39"/>
     </row>
     <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
@@ -3661,44 +3661,44 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="J48" s="43" t="s">
+      <c r="J48" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="54"/>
-    </row>
-    <row r="49" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="39"/>
+    </row>
+    <row r="49" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="K49" s="43" t="s">
+      <c r="K49" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="N49" s="45"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="65"/>
-      <c r="Q49" s="48" t="s">
+      <c r="N49" s="34"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="R49" s="59" t="s">
+      <c r="R49" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="S49" s="59"/>
-      <c r="T49" s="54"/>
-    </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S49" s="44"/>
+      <c r="T49" s="39"/>
+    </row>
+    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2">
@@ -3706,225 +3706,221 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="J50" s="43" t="s">
+      <c r="J50" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="N50" s="45"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="65"/>
-      <c r="Q50" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="54"/>
-    </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N50" s="34"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="39"/>
+    </row>
+    <row r="51" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="L51" s="43" t="s">
+      <c r="J51" s="32"/>
+      <c r="K51" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="L51" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="M51" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="M51" s="43" t="s">
+      <c r="N51" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="N51" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="O51" s="60"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="50" t="s">
+      <c r="O51" s="52"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="R51" s="60" t="s">
+      <c r="R51" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S51" s="59"/>
-      <c r="T51" s="54"/>
-    </row>
-    <row r="52" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S51" s="44"/>
+      <c r="T51" s="39"/>
+    </row>
+    <row r="52" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="L52" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="M52" s="43"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="66"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="54"/>
-    </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="32"/>
+      <c r="K52" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="L52" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="M52" s="32"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="39"/>
+    </row>
+    <row r="53" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="D53" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="L53" s="43" t="s">
-        <v>379</v>
-      </c>
-      <c r="M53" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="L53" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="N53" s="44"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="66"/>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="54"/>
-    </row>
-    <row r="54" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M53" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="N53" s="33"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="39"/>
+    </row>
+    <row r="54" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="L54" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="L54" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="M54" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="M54" s="43" t="s">
+      <c r="N54" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="N54" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="O54" s="60"/>
-      <c r="P54" s="66"/>
-      <c r="Q54" s="51"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="54"/>
-    </row>
-    <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O54" s="52"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="39"/>
+    </row>
+    <row r="55" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="K55" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="L55" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="K55" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="L55" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="M55" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="M55" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="N55" s="45"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="1">
-        <f ca="1">+U51:LL58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N55" s="34"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="58"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="39"/>
+    </row>
+    <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2">
         <v>258</v>
       </c>
-      <c r="J56" s="43" t="s">
+      <c r="J56" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="R56" s="60"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="54"/>
-    </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="R56" s="52"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="39"/>
+    </row>
+    <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="K57" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="K57" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="49" t="s">
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="R57" s="60" t="s">
+      <c r="R57" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S57" s="59"/>
-      <c r="T57" s="54"/>
-    </row>
-    <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S57" s="44"/>
+      <c r="T57" s="39"/>
+    </row>
+    <row r="58" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="K58" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="K58" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="N58" s="45"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="60"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="59"/>
-      <c r="T58" s="54"/>
-    </row>
-    <row r="59" spans="1:21" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O59" s="56"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="39"/>
+    </row>
+    <row r="59" spans="1:20" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O59" s="41"/>
       <c r="P59" s="12"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="57"/>
-    </row>
-    <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q59" s="41"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+    </row>
+    <row r="60" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>183</v>
       </c>
@@ -3947,10 +3943,10 @@
         <v>97</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q68" s="10" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>18</v>
@@ -3965,16 +3961,16 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="I69" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="O69" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="Q69" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>18</v>
@@ -3989,19 +3985,19 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="J70" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="O70" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="P70" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -4013,16 +4009,16 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="I71" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R71" s="3" t="s">
         <v>18</v>
@@ -4037,13 +4033,13 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="J72" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O72" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="P72" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="Q72" s="10" t="s">
         <v>265</v>
@@ -4061,13 +4057,13 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="J73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="P73" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="Q73" s="10" t="s">
         <v>264</v>
@@ -4311,7 +4307,7 @@
         <v>111</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>18</v>
@@ -4331,7 +4327,7 @@
         <v>119</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R88" s="3" t="s">
         <v>18</v>
@@ -5274,25 +5270,25 @@
         <v>328</v>
       </c>
       <c r="K18" t="s">
+        <v>370</v>
+      </c>
+      <c r="L18" t="s">
         <v>371</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>372</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>373</v>
-      </c>
-      <c r="N18" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.3">
       <c r="F19" s="1"/>
       <c r="K19" t="s">
+        <v>374</v>
+      </c>
+      <c r="L19" t="s">
         <v>375</v>
-      </c>
-      <c r="L19" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.3">
@@ -5303,13 +5299,13 @@
         <v>315</v>
       </c>
       <c r="K20" t="s">
+        <v>376</v>
+      </c>
+      <c r="L20" t="s">
+        <v>378</v>
+      </c>
+      <c r="M20" t="s">
         <v>377</v>
-      </c>
-      <c r="L20" t="s">
-        <v>379</v>
-      </c>
-      <c r="M20" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.3">
@@ -5320,27 +5316,27 @@
         <v>314</v>
       </c>
       <c r="K21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L21" t="s">
+        <v>381</v>
+      </c>
+      <c r="M21" t="s">
         <v>382</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>383</v>
-      </c>
-      <c r="N21" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L22" t="s">
+        <v>384</v>
+      </c>
+      <c r="N22" t="s">
         <v>385</v>
-      </c>
-      <c r="N22" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.3">
@@ -5394,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9124B698-58B4-4DE7-867F-E61F7D5602EC}">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="L48" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5432,15 +5428,15 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
@@ -6178,13 +6174,13 @@
       <c r="J39" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="O39" s="33" t="s">
+      <c r="O39" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" s="38" t="s">
+      <c r="Q39" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="R39" s="33" t="s">
+      <c r="R39" s="59" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6202,9 +6198,9 @@
       <c r="J40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="O40" s="37"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="37"/>
+      <c r="O40" s="63"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="63"/>
     </row>
     <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
@@ -6220,9 +6216,9 @@
       <c r="J41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O41" s="37"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="37"/>
+      <c r="O41" s="63"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="63"/>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
@@ -6238,9 +6234,9 @@
       <c r="J42" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O42" s="37"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="37"/>
+      <c r="O42" s="63"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="63"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
@@ -6256,9 +6252,9 @@
       <c r="J43" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="O43" s="37"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="37"/>
+      <c r="O43" s="63"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="63"/>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
@@ -6274,9 +6270,9 @@
       <c r="J44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O44" s="37"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="37"/>
+      <c r="O44" s="63"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="63"/>
     </row>
     <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
@@ -6292,9 +6288,9 @@
       <c r="J45" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O45" s="37"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="37"/>
+      <c r="O45" s="63"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="63"/>
     </row>
     <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
@@ -6310,9 +6306,9 @@
       <c r="J46" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="O46" s="37"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="37"/>
+      <c r="O46" s="63"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="63"/>
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
@@ -6328,9 +6324,9 @@
       <c r="J47" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O47" s="37"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="37"/>
+      <c r="O47" s="63"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="63"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
@@ -6346,9 +6342,9 @@
       <c r="J48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O48" s="37"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="37"/>
+      <c r="O48" s="63"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="63"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
@@ -6362,9 +6358,9 @@
       <c r="J49" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="O49" s="37"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="37"/>
+      <c r="O49" s="63"/>
+      <c r="Q49" s="65"/>
+      <c r="R49" s="63"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
@@ -6378,9 +6374,9 @@
       <c r="J50" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="O50" s="37"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="37"/>
+      <c r="O50" s="63"/>
+      <c r="Q50" s="65"/>
+      <c r="R50" s="63"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
@@ -6396,9 +6392,9 @@
       <c r="J51" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O51" s="37"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="37"/>
+      <c r="O51" s="63"/>
+      <c r="Q51" s="65"/>
+      <c r="R51" s="63"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
@@ -6417,14 +6413,14 @@
       <c r="K52" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="L52" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="M52" s="42"/>
-      <c r="O52" s="37"/>
+      <c r="L52" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="M52" s="68"/>
+      <c r="O52" s="63"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="37"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="63"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
@@ -6438,10 +6434,10 @@
       <c r="J53" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="O53" s="37"/>
+      <c r="O53" s="63"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="37"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="63"/>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
@@ -6455,10 +6451,10 @@
       <c r="J54" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="O54" s="37"/>
+      <c r="O54" s="63"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="37"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="63"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
@@ -6472,10 +6468,10 @@
       <c r="J55" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="O55" s="34"/>
+      <c r="O55" s="60"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="34"/>
+      <c r="Q55" s="66"/>
+      <c r="R55" s="60"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
@@ -6499,14 +6495,14 @@
       <c r="J57" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="O57" s="33" t="s">
+      <c r="O57" s="59" t="s">
         <v>225</v>
       </c>
       <c r="P57" s="1"/>
-      <c r="Q57" s="35" t="s">
+      <c r="Q57" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="R57" s="33" t="s">
+      <c r="R57" s="59" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6522,10 +6518,10 @@
       <c r="J58" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="O58" s="34"/>
+      <c r="O58" s="60"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="34"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="60"/>
     </row>
     <row r="59" spans="1:19" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O59" s="12"/>
@@ -6557,10 +6553,10 @@
         <v>97</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q68" s="10" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>18</v>
@@ -6575,16 +6571,16 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="I69" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="O69" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="Q69" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>18</v>
@@ -6599,19 +6595,19 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="J70" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="O70" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="P70" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -6623,16 +6619,16 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="I71" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R71" s="3" t="s">
         <v>18</v>
@@ -6647,13 +6643,13 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="J72" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O72" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="P72" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="Q72" s="10" t="s">
         <v>265</v>
@@ -6671,13 +6667,13 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="J73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="P73" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="Q73" s="10" t="s">
         <v>264</v>
@@ -6921,7 +6917,7 @@
         <v>111</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>18</v>
@@ -6941,7 +6937,7 @@
         <v>119</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R88" s="3" t="s">
         <v>18</v>
